--- a/ExtraShapenet.xlsx
+++ b/ExtraShapenet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91DC2C-D508-4513-B613-154C1DBF0681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224FE833-5FF1-49FE-9B2A-5017D39BA374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,6 +361,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,6 +425,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,8 +715,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BG503"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AX1" sqref="AX1"/>
+      <selection pane="bottomLeft" activeCell="AY1" sqref="AY1:BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -90698,39 +90709,39 @@
         <f t="shared" si="0"/>
         <v>78.436000000000007</v>
       </c>
-      <c r="AG503" s="3">
+      <c r="AG503" s="4">
         <f t="shared" si="0"/>
         <v>0.18281008296616635</v>
       </c>
-      <c r="AH503" s="3">
+      <c r="AH503" s="4">
         <f t="shared" si="0"/>
         <v>0.17758754339193464</v>
       </c>
-      <c r="AI503" s="3">
+      <c r="AI503" s="4">
         <f t="shared" si="0"/>
         <v>3.1035079305377244E-2</v>
       </c>
-      <c r="AJ503" s="3">
+      <c r="AJ503" s="4">
         <f t="shared" si="0"/>
         <v>2.1541140912736977E-2</v>
       </c>
-      <c r="AK503" s="3">
+      <c r="AK503" s="4">
         <f t="shared" si="0"/>
         <v>4.8791829360015256E-2</v>
       </c>
-      <c r="AL503" s="3">
+      <c r="AL503" s="4">
         <f t="shared" si="0"/>
         <v>3.0926462065462994E-2</v>
       </c>
-      <c r="AM503" s="3">
+      <c r="AM503" s="4">
         <f t="shared" si="0"/>
         <v>2.4118552597975674E-2</v>
       </c>
-      <c r="AN503" s="3">
+      <c r="AN503" s="4">
         <f t="shared" si="0"/>
         <v>2.2867496531086183E-2</v>
       </c>
-      <c r="AO503" s="3">
+      <c r="AO503" s="4">
         <f t="shared" si="0"/>
         <v>3.1089565846883032E-2</v>
       </c>
@@ -90770,39 +90781,39 @@
         <f t="shared" si="0"/>
         <v>250.876</v>
       </c>
-      <c r="AY503" s="3">
+      <c r="AY503" s="5">
         <f>AVERAGEIF(AY3:AY502,"&gt;=0")</f>
         <v>22.234570513326645</v>
       </c>
-      <c r="AZ503" s="3">
+      <c r="AZ503" s="5">
         <f t="shared" ref="AZ503:BG503" si="1">AVERAGEIF(AZ3:AZ502,"&gt;=0")</f>
         <v>26.16111862014434</v>
       </c>
-      <c r="BA503" s="3">
+      <c r="BA503" s="5">
         <f t="shared" si="1"/>
         <v>35.266437507629391</v>
       </c>
-      <c r="BB503" s="3">
+      <c r="BB503" s="5">
         <f t="shared" si="1"/>
         <v>47.691857707977285</v>
       </c>
-      <c r="BC503" s="3">
+      <c r="BC503" s="5">
         <f t="shared" si="1"/>
         <v>32.880608245849601</v>
       </c>
-      <c r="BD503" s="3">
+      <c r="BD503" s="5">
         <f t="shared" si="1"/>
         <v>49.111852939605711</v>
       </c>
-      <c r="BE503" s="3">
+      <c r="BE503" s="5">
         <f t="shared" si="1"/>
         <v>59.446924491882314</v>
       </c>
-      <c r="BF503" s="3">
+      <c r="BF503" s="5">
         <f t="shared" si="1"/>
         <v>36.160148040771482</v>
       </c>
-      <c r="BG503" s="3">
+      <c r="BG503" s="5">
         <f t="shared" si="1"/>
         <v>45.972545654296866</v>
       </c>
